--- a/_6_Queries_&_Results/Exp2/CozoPG_vs_CozoRPG_R2.xlsx
+++ b/_6_Queries_&_Results/Exp2/CozoPG_vs_CozoRPG_R2.xlsx
@@ -5,22 +5,27 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Selsebil\Downloads\EXP2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Selsebil\Desktop\Thèse\EXPERIENCES\EXP2 - UPDATED\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F48DD0F-BF28-41AD-92B2-F052097352B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B312C81A-56E1-4990-84ED-4D2F22AC90B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12" yWindow="732" windowWidth="23028" windowHeight="13668" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519"/>
+  <extLst>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>DS_size</t>
   </si>
@@ -29,15 +34,6 @@
   </si>
   <si>
     <t>CozoRPG</t>
-  </si>
-  <si>
-    <t>100K_500K</t>
-  </si>
-  <si>
-    <t>200K_1M</t>
-  </si>
-  <si>
-    <t>300K_1M500K</t>
   </si>
   <si>
     <t>400K_2M</t>
@@ -520,10 +516,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C31"/>
+  <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83984375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -547,10 +543,10 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>2006</v>
+        <v>5156</v>
       </c>
       <c r="C2">
-        <v>2277</v>
+        <v>5628</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -558,10 +554,10 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>3245</v>
+        <v>5103</v>
       </c>
       <c r="C3">
-        <v>3575</v>
+        <v>5522</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -569,10 +565,10 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>4210</v>
+        <v>6049</v>
       </c>
       <c r="C4">
-        <v>4411</v>
+        <v>6536</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -580,10 +576,10 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <v>5156</v>
+        <v>7996.6153846153848</v>
       </c>
       <c r="C5">
-        <v>5472</v>
+        <v>8451.6153849999992</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -591,10 +587,10 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <v>5103</v>
+        <v>8943</v>
       </c>
       <c r="C6">
-        <v>5370</v>
+        <v>9442</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -602,10 +598,10 @@
         <v>8</v>
       </c>
       <c r="B7">
-        <v>6049</v>
+        <v>8889</v>
       </c>
       <c r="C7">
-        <v>6220</v>
+        <v>9290</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -613,10 +609,10 @@
         <v>9</v>
       </c>
       <c r="B8">
-        <v>7996.6153846153848</v>
+        <v>10836</v>
       </c>
       <c r="C8">
-        <v>8326</v>
+        <v>11304</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -624,10 +620,10 @@
         <v>10</v>
       </c>
       <c r="B9">
-        <v>8943</v>
+        <v>10783</v>
       </c>
       <c r="C9">
-        <v>9120</v>
+        <v>11220</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -635,10 +631,10 @@
         <v>11</v>
       </c>
       <c r="B10">
-        <v>8889</v>
+        <v>12200</v>
       </c>
       <c r="C10">
-        <v>9050</v>
+        <v>12622</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -646,10 +642,10 @@
         <v>12</v>
       </c>
       <c r="B11">
-        <v>10836</v>
+        <v>13676.538461538459</v>
       </c>
       <c r="C11">
-        <v>10999</v>
+        <v>14164.53846</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -657,10 +653,10 @@
         <v>13</v>
       </c>
       <c r="B12">
-        <v>10783</v>
+        <v>14300</v>
       </c>
       <c r="C12">
-        <v>10930</v>
+        <v>14770</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -668,10 +664,10 @@
         <v>14</v>
       </c>
       <c r="B13">
-        <v>12200</v>
+        <v>15510</v>
       </c>
       <c r="C13">
-        <v>12510</v>
+        <v>15917</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -679,10 +675,10 @@
         <v>15</v>
       </c>
       <c r="B14">
-        <v>13676.538461538459</v>
+        <v>16516.5</v>
       </c>
       <c r="C14">
-        <v>13822</v>
+        <v>17012.5</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -690,10 +686,10 @@
         <v>16</v>
       </c>
       <c r="B15">
-        <v>14300</v>
+        <v>17690</v>
       </c>
       <c r="C15">
-        <v>14634</v>
+        <v>18104</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -701,10 +697,10 @@
         <v>17</v>
       </c>
       <c r="B16">
-        <v>15510</v>
+        <v>18580</v>
       </c>
       <c r="C16">
-        <v>15702</v>
+        <v>19049</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -712,10 +708,10 @@
         <v>18</v>
       </c>
       <c r="B17">
-        <v>16516.5</v>
+        <v>19356.461538461539</v>
       </c>
       <c r="C17">
-        <v>16710</v>
+        <v>19837.46154</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -723,10 +719,10 @@
         <v>19</v>
       </c>
       <c r="B18">
-        <v>17690</v>
+        <v>20303.115384615379</v>
       </c>
       <c r="C18">
-        <v>17866</v>
+        <v>20742.115379999999</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -734,10 +730,10 @@
         <v>20</v>
       </c>
       <c r="B19">
-        <v>18580</v>
+        <v>21249.76923076923</v>
       </c>
       <c r="C19">
-        <v>18768</v>
+        <v>21744.769230000002</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -745,10 +741,10 @@
         <v>21</v>
       </c>
       <c r="B20">
-        <v>19356.461538461539</v>
+        <v>23196</v>
       </c>
       <c r="C20">
-        <v>19610</v>
+        <v>23620</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -756,10 +752,10 @@
         <v>22</v>
       </c>
       <c r="B21">
-        <v>20303.115384615379</v>
+        <v>23143.076923076918</v>
       </c>
       <c r="C21">
-        <v>20630</v>
+        <v>23619.07692</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -767,10 +763,10 @@
         <v>23</v>
       </c>
       <c r="B22">
-        <v>21249.76923076923</v>
+        <v>24089.73076923077</v>
       </c>
       <c r="C22">
-        <v>21553</v>
+        <v>24501.730769999998</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -778,10 +774,10 @@
         <v>24</v>
       </c>
       <c r="B23">
-        <v>23196</v>
+        <v>25010</v>
       </c>
       <c r="C23">
-        <v>23290</v>
+        <v>25495</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -789,10 +785,10 @@
         <v>25</v>
       </c>
       <c r="B24">
-        <v>23143.076923076918</v>
+        <v>25983.038461538461</v>
       </c>
       <c r="C24">
-        <v>23320</v>
+        <v>26386.03846</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -800,10 +796,10 @@
         <v>26</v>
       </c>
       <c r="B25">
-        <v>24089.73076923077</v>
+        <v>26123</v>
       </c>
       <c r="C25">
-        <v>24242</v>
+        <v>26613</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -811,10 +807,10 @@
         <v>27</v>
       </c>
       <c r="B26">
-        <v>25010</v>
+        <v>27576</v>
       </c>
       <c r="C26">
-        <v>25146</v>
+        <v>27984</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -822,10 +818,10 @@
         <v>28</v>
       </c>
       <c r="B27">
-        <v>25983.038461538461</v>
+        <v>27999</v>
       </c>
       <c r="C27">
-        <v>26006</v>
+        <v>28496</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -833,43 +829,10 @@
         <v>29</v>
       </c>
       <c r="B28">
-        <v>26123</v>
+        <v>29850</v>
       </c>
       <c r="C28">
-        <v>26234</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" t="s">
-        <v>30</v>
-      </c>
-      <c r="B29">
-        <v>27576</v>
-      </c>
-      <c r="C29">
-        <v>27640</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" t="s">
-        <v>31</v>
-      </c>
-      <c r="B30">
-        <v>27999</v>
-      </c>
-      <c r="C30">
-        <v>28101</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" t="s">
-        <v>32</v>
-      </c>
-      <c r="B31">
-        <v>29850</v>
-      </c>
-      <c r="C31">
-        <v>30110</v>
+        <v>30301</v>
       </c>
     </row>
   </sheetData>
